--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Il18-Il1rapl1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Il18-Il1rapl1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -455,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.097665</v>
+        <v>4.603443333333334</v>
       </c>
       <c r="H2">
-        <v>0.19533</v>
+        <v>13.81033</v>
       </c>
       <c r="I2">
-        <v>0.001582406724321514</v>
+        <v>0.08158091023488877</v>
       </c>
       <c r="J2">
-        <v>0.001075431277232573</v>
+        <v>0.08188547928246082</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,10 +558,10 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1173095</v>
+        <v>0.159713</v>
       </c>
       <c r="N2">
-        <v>0.234619</v>
+        <v>0.319426</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -573,16 +570,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.0114570323175</v>
+        <v>0.7352297450966667</v>
       </c>
       <c r="R2">
-        <v>0.04582812927</v>
+        <v>4.41137847058</v>
       </c>
       <c r="S2">
-        <v>0.001582406724321514</v>
+        <v>0.08158091023488877</v>
       </c>
       <c r="T2">
-        <v>0.001075431277232573</v>
+        <v>0.08188547928246082</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,13 +587,13 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -605,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.603443333333334</v>
+        <v>36.354119</v>
       </c>
       <c r="H3">
-        <v>13.81033</v>
+        <v>109.062357</v>
       </c>
       <c r="I3">
-        <v>0.07458679860441011</v>
+        <v>0.6442573317525643</v>
       </c>
       <c r="J3">
-        <v>0.07603573865204179</v>
+        <v>0.6466625616201672</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,10 +620,10 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.1173095</v>
+        <v>0.159713</v>
       </c>
       <c r="N3">
-        <v>0.234619</v>
+        <v>0.319426</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -635,16 +632,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.5400276357116667</v>
+        <v>5.806225407846999</v>
       </c>
       <c r="R3">
-        <v>3.24016581427</v>
+        <v>34.837352447082</v>
       </c>
       <c r="S3">
-        <v>0.07458679860441011</v>
+        <v>0.6442573317525643</v>
       </c>
       <c r="T3">
-        <v>0.07603573865204179</v>
+        <v>0.6466625616201672</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +649,31 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
         <v>26</v>
       </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>23.02695066666666</v>
+        <v>0.629643</v>
       </c>
       <c r="H4">
-        <v>69.08085199999999</v>
+        <v>1.259286</v>
       </c>
       <c r="I4">
-        <v>0.3730917071167061</v>
+        <v>0.01115835372428307</v>
       </c>
       <c r="J4">
-        <v>0.3803394711445981</v>
+        <v>0.00746667441427489</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,10 +682,10 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1173095</v>
+        <v>0.159713</v>
       </c>
       <c r="N4">
-        <v>0.234619</v>
+        <v>0.319426</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -697,16 +694,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>2.701280069231333</v>
+        <v>0.100562172459</v>
       </c>
       <c r="R4">
-        <v>16.207680415388</v>
+        <v>0.4022486898359999</v>
       </c>
       <c r="S4">
-        <v>0.3730917071167061</v>
+        <v>0.01115835372428307</v>
       </c>
       <c r="T4">
-        <v>0.3803394711445981</v>
+        <v>0.00746667441427489</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +711,31 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
         <v>26</v>
       </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.43071</v>
+        <v>6.102351666666666</v>
       </c>
       <c r="H5">
-        <v>6.86142</v>
+        <v>18.307055</v>
       </c>
       <c r="I5">
-        <v>0.05558571210973288</v>
+        <v>0.1081441363544659</v>
       </c>
       <c r="J5">
-        <v>0.03777702183089705</v>
+        <v>0.1085478748824518</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,10 +744,10 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1173095</v>
+        <v>0.159713</v>
       </c>
       <c r="N5">
-        <v>0.234619</v>
+        <v>0.319426</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -759,16 +756,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.402454874745</v>
+        <v>0.9746248917383332</v>
       </c>
       <c r="R5">
-        <v>1.60981949898</v>
+        <v>5.847749350429999</v>
       </c>
       <c r="S5">
-        <v>0.05558571210973288</v>
+        <v>0.1081441363544659</v>
       </c>
       <c r="T5">
-        <v>0.03777702183089705</v>
+        <v>0.1085478748824518</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +773,31 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.451068</v>
+        <v>8.738390666666666</v>
       </c>
       <c r="H6">
-        <v>1.353204</v>
+        <v>26.215172</v>
       </c>
       <c r="I6">
-        <v>0.0073083810610378</v>
+        <v>0.154859267933798</v>
       </c>
       <c r="J6">
-        <v>0.007450355327272958</v>
+        <v>0.1554374098006454</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,10 +806,10 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1173095</v>
+        <v>0.159713</v>
       </c>
       <c r="N6">
-        <v>0.234619</v>
+        <v>0.319426</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -821,78 +818,16 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>0.05291456154599999</v>
+        <v>1.395634588545333</v>
       </c>
       <c r="R6">
-        <v>0.317487369276</v>
+        <v>8.373807531272</v>
       </c>
       <c r="S6">
-        <v>0.0073083810610378</v>
+        <v>0.154859267933798</v>
       </c>
       <c r="T6">
-        <v>0.007450355327272958</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>30.10944066666667</v>
-      </c>
-      <c r="H7">
-        <v>90.328322</v>
-      </c>
-      <c r="I7">
-        <v>0.4878449943837915</v>
-      </c>
-      <c r="J7">
-        <v>0.4973219817679575</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.1173095</v>
-      </c>
-      <c r="N7">
-        <v>0.234619</v>
-      </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7">
-        <v>1</v>
-      </c>
-      <c r="Q7">
-        <v>3.532123429886334</v>
-      </c>
-      <c r="R7">
-        <v>21.192740579318</v>
-      </c>
-      <c r="S7">
-        <v>0.4878449943837915</v>
-      </c>
-      <c r="T7">
-        <v>0.4973219817679575</v>
+        <v>0.1554374098006454</v>
       </c>
     </row>
   </sheetData>
